--- a/PS3 running para table.xlsx
+++ b/PS3 running para table.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="B13:O13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1482,13 +1482,13 @@
         <v>410</v>
       </c>
       <c r="J13" s="5">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="K13" s="5">
         <v>400</v>
       </c>
       <c r="L13" s="5">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>36</v>

--- a/PS3 running para table.xlsx
+++ b/PS3 running para table.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1479,7 +1479,7 @@
         <v>31</v>
       </c>
       <c r="I13" s="5">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="J13" s="5">
         <v>410</v>
@@ -1494,7 +1494,7 @@
         <v>36</v>
       </c>
       <c r="N13" s="6">
-        <v>43049</v>
+        <v>43052</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>24</v>
